--- a/src/Track/TrackModel/redline_layout.xlsx
+++ b/src/Track/TrackModel/redline_layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC07CB3-8B7F-45D5-9D11-F0EDA117356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632E0B96-8DB2-473A-B5BB-EF523CBF9837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
   <si>
     <t>Section</t>
   </si>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="74" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B78"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="74" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3112,8 +3112,8 @@
       <c r="O48" s="4">
         <v>0</v>
       </c>
-      <c r="P48" s="4" t="s">
-        <v>42</v>
+      <c r="P48" s="4">
+        <v>3</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" ref="M67:M78" si="5">K68</f>
+        <f t="shared" ref="M68:M76" si="5">K68</f>
         <v>1</v>
       </c>
       <c r="N68" s="4" t="s">
@@ -5827,7 +5827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88653644-AF3E-4625-A5A7-2FF88949AA53}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>

--- a/src/Track/TrackModel/redline_layout.xlsx
+++ b/src/Track/TrackModel/redline_layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632E0B96-8DB2-473A-B5BB-EF523CBF9837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716059FC-10D8-46C0-BEA2-1FA94C7552D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="11916" yWindow="0" windowWidth="11220" windowHeight="12336" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="74" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25">
         <f t="shared" si="1"/>
@@ -2360,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <f t="shared" si="1"/>
@@ -2965,7 +2965,7 @@
         <v>2</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45">
         <f t="shared" si="1"/>
@@ -3116,7 +3116,7 @@
         <v>3</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48">
         <f t="shared" si="1"/>
@@ -4116,7 +4116,7 @@
         <v>3</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68">
         <f t="shared" si="3"/>
@@ -4313,7 +4313,7 @@
         <v>2</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72">
         <f t="shared" si="3"/>
@@ -4366,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73">
         <f t="shared" si="3"/>
@@ -4563,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77">
         <f t="shared" si="3"/>
@@ -4614,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78">
         <f t="shared" si="3"/>

--- a/src/Track/TrackModel/redline_layout.xlsx
+++ b/src/Track/TrackModel/redline_layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716059FC-10D8-46C0-BEA2-1FA94C7552D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB0EB39-2353-4125-AC34-8BD42E96A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11916" yWindow="0" windowWidth="11220" windowHeight="12336" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="11304" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>Station Square</t>
   </si>
   <si>
-    <t>16-15,16-1</t>
-  </si>
-  <si>
     <t>27-28,27-76</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>R72</t>
+  </si>
+  <si>
+    <t>16-1,16-15</t>
   </si>
 </sst>
 </file>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="74" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,7 +784,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K2" s="4">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O2" s="4">
         <v>0</v>
@@ -1184,7 +1184,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -1236,7 +1236,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11" s="4">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O11" s="4">
         <v>0</v>
@@ -1484,7 +1484,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
@@ -1538,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -2088,7 +2088,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K28" s="4">
         <v>0</v>
@@ -2140,7 +2140,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K29" s="4">
         <v>1</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O29" s="4">
         <v>1</v>
@@ -2341,7 +2341,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33" s="4">
         <v>1</v>
@@ -2391,7 +2391,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34" s="4">
         <v>0</v>
@@ -2642,7 +2642,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39" s="4">
         <v>0</v>
@@ -2694,7 +2694,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K40" s="4">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O40" s="4">
         <v>1</v>
@@ -2895,7 +2895,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K44" s="4">
         <v>1</v>
@@ -2945,7 +2945,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45" s="4">
         <v>0</v>
@@ -3347,7 +3347,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K53" s="4">
         <v>0</v>
@@ -3399,7 +3399,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K54" s="4">
         <v>1</v>
@@ -3412,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O54" s="4">
         <v>0</v>
@@ -4043,7 +4043,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K67" s="4">
         <v>1</v>
@@ -4094,7 +4094,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K68" s="4">
         <v>1</v>
@@ -4107,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O68" s="4">
         <v>1</v>
@@ -4294,7 +4294,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K72" s="4">
         <v>1</v>
@@ -4345,7 +4345,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K73" s="4">
         <v>1</v>
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O73" s="4">
         <v>1</v>
@@ -4544,7 +4544,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="J77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K77" s="4">
         <v>1</v>
@@ -4595,7 +4595,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K78" s="4">
         <v>1</v>

--- a/src/Track/TrackModel/redline_layout.xlsx
+++ b/src/Track/TrackModel/redline_layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB0EB39-2353-4125-AC34-8BD42E96A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1104945-A7BB-4C2F-98D9-E56D487D82D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="11304" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
   <si>
     <t>Section</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>16-1,16-15</t>
+  </si>
+  <si>
+    <t>Traversal Time</t>
   </si>
 </sst>
 </file>
@@ -677,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
-  <dimension ref="A1:S153"/>
+  <dimension ref="A1:T153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="74" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="V69" sqref="V69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,9 +703,10 @@
     <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -760,8 +764,11 @@
       <c r="S1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
@@ -816,8 +823,12 @@
         <f>D2* 1.09361</f>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <f xml:space="preserve"> S2/(R2*0.488889)</f>
+        <v>4.4999867974639587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
@@ -865,8 +876,12 @@
         <f t="shared" ref="S3:S66" si="2">D3* 1.09361</f>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="3" xml:space="preserve"> S3/(R3*0.488889)</f>
+        <v>4.4999867974639587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
@@ -914,8 +929,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>4.4999867974639587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -963,8 +982,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>4.4999867974639587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
         <v>9</v>
@@ -1012,8 +1035,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>4.4999867974639587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -1061,8 +1088,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>4.4999867974639587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>10</v>
@@ -1114,8 +1145,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>6.7499801961959385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>10</v>
@@ -1163,8 +1198,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>6.7499801961959385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>10</v>
@@ -1214,8 +1253,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>6.7499801961959385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
@@ -1268,8 +1311,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>6.7499801961959385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
         <v>14</v>
@@ -1317,8 +1364,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>6.7499801961959385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
         <v>14</v>
@@ -1365,8 +1416,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>6.7499801961959385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="6" t="s">
         <v>15</v>
@@ -1414,8 +1469,12 @@
         <f t="shared" si="2"/>
         <v>76.552700000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>6.2999815164495434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="6" t="s">
         <v>15</v>
@@ -1463,8 +1522,12 @@
         <f t="shared" si="2"/>
         <v>65.616600000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>5.3999841569567515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -1513,8 +1576,12 @@
         <f t="shared" si="2"/>
         <v>65.616600000000005</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <f t="shared" si="3"/>
+        <v>5.3999841569567515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -1568,8 +1635,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>4.4999867974639587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="6" t="s">
         <v>16</v>
@@ -1617,8 +1688,12 @@
         <f t="shared" si="2"/>
         <v>218.72199999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>13.09087068353152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="6" t="s">
         <v>16</v>
@@ -1667,8 +1742,12 @@
         <f t="shared" si="2"/>
         <v>437.44399999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>20.571368216978097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="6" t="s">
         <v>16</v>
@@ -1716,8 +1795,12 @@
         <f t="shared" si="2"/>
         <v>437.44399999999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>20.571368216978097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
@@ -1765,8 +1848,12 @@
         <f t="shared" si="2"/>
         <v>218.72199999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>10.285684108489049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1818,8 +1905,12 @@
         <f t="shared" si="2"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>6.54543534176576</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
         <v>17</v>
@@ -1867,8 +1958,12 @@
         <f t="shared" si="2"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>6.54543534176576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
         <v>17</v>
@@ -1916,8 +2011,12 @@
         <f t="shared" si="2"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>6.54543534176576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
         <v>18</v>
@@ -1965,8 +2064,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
         <v>18</v>
@@ -2018,8 +2121,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
         <v>18</v>
@@ -2067,8 +2174,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>18</v>
@@ -2118,8 +2229,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
         <v>18</v>
@@ -2172,8 +2287,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
         <v>18</v>
@@ -2221,8 +2340,12 @@
         <f t="shared" si="2"/>
         <v>65.616600000000005</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>3.0857052325467151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
         <v>18</v>
@@ -2270,8 +2393,12 @@
         <f t="shared" si="2"/>
         <v>65.616600000000005</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>3.0857052325467151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
         <v>18</v>
@@ -2319,8 +2446,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
         <v>18</v>
@@ -2370,8 +2501,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
         <v>18</v>
@@ -2421,8 +2556,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
         <v>18</v>
@@ -2470,8 +2609,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
         <v>18</v>
@@ -2523,8 +2666,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
         <v>18</v>
@@ -2572,8 +2719,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>18</v>
@@ -2621,8 +2772,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="6" t="s">
         <v>18</v>
@@ -2672,8 +2827,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="6" t="s">
         <v>18</v>
@@ -2726,8 +2885,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="6" t="s">
         <v>18</v>
@@ -2775,8 +2938,12 @@
         <f t="shared" si="2"/>
         <v>65.616600000000005</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>3.0857052325467151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="6" t="s">
         <v>18</v>
@@ -2824,8 +2991,12 @@
         <f t="shared" si="2"/>
         <v>65.616600000000005</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T42">
+        <f t="shared" si="3"/>
+        <v>3.0857052325467151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="6" t="s">
         <v>18</v>
@@ -2873,8 +3044,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T43">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="6" t="s">
         <v>18</v>
@@ -2924,8 +3099,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T44">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>18</v>
@@ -2975,8 +3154,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T45">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="6" t="s">
         <v>18</v>
@@ -3028,8 +3211,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T46">
+        <f t="shared" si="3"/>
+        <v>2.5714210271222622</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="6" t="s">
         <v>19</v>
@@ -3077,8 +3264,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T47">
+        <f t="shared" si="3"/>
+        <v>3.8571315406833935</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="6" t="s">
         <v>19</v>
@@ -3126,8 +3317,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T48">
+        <f t="shared" si="3"/>
+        <v>3.8571315406833935</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="6" t="s">
         <v>19</v>
@@ -3179,8 +3374,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T49">
+        <f t="shared" si="3"/>
+        <v>3.8571315406833935</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="6" t="s">
         <v>20</v>
@@ -3228,8 +3427,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T50">
+        <f t="shared" si="3"/>
+        <v>2.9999911983093059</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="6" t="s">
         <v>20</v>
@@ -3277,8 +3480,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T51">
+        <f t="shared" si="3"/>
+        <v>2.9999911983093059</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="6" t="s">
         <v>20</v>
@@ -3326,8 +3533,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T52">
+        <f t="shared" si="3"/>
+        <v>3.27271767088288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="6" t="s">
         <v>20</v>
@@ -3377,8 +3588,12 @@
         <f t="shared" si="2"/>
         <v>47.243952</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T53">
+        <f t="shared" si="3"/>
+        <v>2.8276280676428085</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="6" t="s">
         <v>20</v>
@@ -3431,8 +3646,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T54">
+        <f t="shared" si="3"/>
+        <v>3.27271767088288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="6" t="s">
         <v>20</v>
@@ -3480,8 +3699,12 @@
         <f t="shared" si="2"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T55">
+        <f t="shared" si="3"/>
+        <v>3.27271767088288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="6" t="s">
         <v>21</v>
@@ -3529,8 +3752,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T56">
+        <f t="shared" si="3"/>
+        <v>4.90907650632432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="6" t="s">
         <v>21</v>
@@ -3578,8 +3805,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T57">
+        <f t="shared" si="3"/>
+        <v>4.90907650632432</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="6" t="s">
         <v>21</v>
@@ -3627,8 +3858,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T58">
+        <f t="shared" si="3"/>
+        <v>4.90907650632432</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="6" t="s">
         <v>22</v>
@@ -3675,8 +3910,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T59">
+        <f t="shared" si="3"/>
+        <v>4.90907650632432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="6" t="s">
         <v>22</v>
@@ -3724,8 +3963,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T60">
+        <f t="shared" si="3"/>
+        <v>4.90907650632432</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="6" t="s">
         <v>22</v>
@@ -3777,8 +4020,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T61">
+        <f t="shared" si="3"/>
+        <v>4.90907650632432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="6" t="s">
         <v>23</v>
@@ -3826,8 +4073,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T62">
+        <f t="shared" si="3"/>
+        <v>4.90907650632432</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="6" t="s">
         <v>23</v>
@@ -3874,8 +4125,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T63">
+        <f t="shared" si="3"/>
+        <v>4.90907650632432</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="6" t="s">
         <v>23</v>
@@ -3923,8 +4178,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T64">
+        <f t="shared" si="3"/>
+        <v>4.90907650632432</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="6" t="s">
         <v>24</v>
@@ -3972,8 +4231,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T65">
+        <f t="shared" si="3"/>
+        <v>4.90907650632432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="6" t="s">
         <v>24</v>
@@ -4021,8 +4284,12 @@
         <f t="shared" si="2"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T66">
+        <f t="shared" si="3"/>
+        <v>4.90907650632432</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="6" t="s">
         <v>24</v>
@@ -4065,15 +4332,19 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R78" si="3">F67*0.621371</f>
+        <f t="shared" ref="R67:R78" si="4">F67*0.621371</f>
         <v>34.175404999999998</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S78" si="4">D67* 1.09361</f>
+        <f t="shared" ref="S67:S78" si="5">D67* 1.09361</f>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T67">
+        <f t="shared" ref="T67:T78" si="6" xml:space="preserve"> S67/(R67*0.488889)</f>
+        <v>4.90907650632432</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="6" t="s">
         <v>25</v>
@@ -4103,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" ref="M68:M76" si="5">K68</f>
+        <f t="shared" ref="M68:M76" si="7">K68</f>
         <v>1</v>
       </c>
       <c r="N68" s="4" t="s">
@@ -4119,15 +4390,19 @@
         <v>1</v>
       </c>
       <c r="R68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.175404999999998</v>
       </c>
       <c r="S68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T68">
+        <f t="shared" si="6"/>
+        <v>3.27271767088288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="6" t="s">
         <v>26</v>
@@ -4154,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O69" s="4">
@@ -4167,15 +4442,19 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.175404999999998</v>
       </c>
       <c r="S69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T69">
+        <f t="shared" si="6"/>
+        <v>3.27271767088288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="6" t="s">
         <v>26</v>
@@ -4202,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N70" s="4"/>
@@ -4216,15 +4495,19 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.175404999999998</v>
       </c>
       <c r="S70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T70">
+        <f t="shared" si="6"/>
+        <v>3.27271767088288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="6" t="s">
         <v>26</v>
@@ -4251,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N71" s="4"/>
@@ -4265,15 +4548,19 @@
         <v>0</v>
       </c>
       <c r="R71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.175404999999998</v>
       </c>
       <c r="S71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T71">
+        <f t="shared" si="6"/>
+        <v>3.27271767088288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="6" t="s">
         <v>27</v>
@@ -4316,15 +4603,19 @@
         <v>1</v>
       </c>
       <c r="R72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.175404999999998</v>
       </c>
       <c r="S72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T72">
+        <f t="shared" si="6"/>
+        <v>3.27271767088288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="6" t="s">
         <v>28</v>
@@ -4369,15 +4660,19 @@
         <v>1</v>
       </c>
       <c r="R73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.175404999999998</v>
       </c>
       <c r="S73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T73">
+        <f t="shared" si="6"/>
+        <v>3.27271767088288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="6" t="s">
         <v>29</v>
@@ -4404,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N74" s="4"/>
@@ -4418,15 +4713,19 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.175404999999998</v>
       </c>
       <c r="S74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T74">
+        <f t="shared" si="6"/>
+        <v>3.27271767088288</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="6" t="s">
         <v>29</v>
@@ -4453,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N75" s="4"/>
@@ -4467,15 +4766,19 @@
         <v>0</v>
       </c>
       <c r="R75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.175404999999998</v>
       </c>
       <c r="S75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T75">
+        <f t="shared" si="6"/>
+        <v>3.27271767088288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="6" t="s">
         <v>29</v>
@@ -4502,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N76" s="4"/>
@@ -4516,15 +4819,19 @@
         <v>0</v>
       </c>
       <c r="R76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.175404999999998</v>
       </c>
       <c r="S76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T76">
+        <f t="shared" si="6"/>
+        <v>3.27271767088288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="6" t="s">
         <v>30</v>
@@ -4566,15 +4873,19 @@
         <v>1</v>
       </c>
       <c r="R77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.175404999999998</v>
       </c>
       <c r="S77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T77">
+        <f t="shared" si="6"/>
+        <v>3.27271767088288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
         <v>40</v>
@@ -4617,15 +4928,19 @@
         <v>1</v>
       </c>
       <c r="R78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3205650000000002</v>
       </c>
       <c r="S78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T78">
+        <f t="shared" si="6"/>
+        <v>23.999929586474448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -4641,7 +4956,7 @@
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>

--- a/src/Track/TrackModel/redline_layout.xlsx
+++ b/src/Track/TrackModel/redline_layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1104945-A7BB-4C2F-98D9-E56D487D82D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C31EBB9-EFE3-4680-AFB4-9E9526893B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="1464" yWindow="936" windowWidth="17280" windowHeight="11304" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
   <dimension ref="A1:T153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="V69" sqref="V69"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
